--- a/test/ACFX.xlsx
+++ b/test/ACFX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\Documents\GitHub\TimeseriesLambda\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A89E2C-C7C8-4CC0-B6C6-5FACC2FB0FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03791B45-2CBB-4D32-86A8-162C4D4D2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="2220" windowWidth="19390" windowHeight="10360" xr2:uid="{5030F5D2-4481-4BF0-8F94-57CBBA530F21}"/>
+    <workbookView xWindow="31180" yWindow="1450" windowWidth="19390" windowHeight="10360" xr2:uid="{5030F5D2-4481-4BF0-8F94-57CBBA530F21}"/>
   </bookViews>
   <sheets>
     <sheet name="ACF" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:U716"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
